--- a/data/league_data/england/20/england_shooting.xlsx
+++ b/data/league_data/england/20/england_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B2D56B22-A69C-2946-BBBA-88775CCC5479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3F348-9B21-294C-85E9-C8DD5075D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1585,9 +1585,6 @@
     <t>Ryan Sessegnon</t>
   </si>
   <si>
-    <t>Jota</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
@@ -1841,12 +1838,15 @@
   </si>
   <si>
     <t>Ralf Fährmann</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2704,14 +2704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2739,7 +2739,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -23457,7 +23457,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -24225,7 +24225,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24841,7 +24841,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26975,7 +26975,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -27283,7 +27283,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -27358,7 +27358,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -27435,7 +27435,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -27502,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27877,7 +27877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -28173,7 +28173,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -28240,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -28394,7 +28394,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -28471,7 +28471,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -28625,7 +28625,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28854,7 +28854,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -29085,7 +29085,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -29381,7 +29381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -29535,7 +29535,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -29612,7 +29612,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -29764,7 +29764,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -29841,7 +29841,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29918,7 +29918,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -30224,7 +30224,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -30301,7 +30301,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30905,7 +30905,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -31363,7 +31363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -31671,7 +31671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -31813,7 +31813,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -31890,7 +31890,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31965,7 +31965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -32115,7 +32115,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -32190,7 +32190,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -32267,7 +32267,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -32342,7 +32342,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -32496,7 +32496,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -32717,7 +32717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -32784,7 +32784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -32859,7 +32859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -33311,7 +33311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -33378,7 +33378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -33455,7 +33455,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -33909,7 +33909,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -34053,7 +34053,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -34128,7 +34128,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -34195,12 +34195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>41</v>
@@ -34272,15 +34272,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>86</v>
@@ -34349,12 +34349,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>26</v>
@@ -34416,12 +34416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>146</v>
@@ -34493,12 +34493,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>153</v>
@@ -34570,12 +34570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>45</v>
@@ -34647,12 +34647,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>116</v>
@@ -34724,12 +34724,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>450</v>
@@ -34799,12 +34799,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>224</v>
@@ -34866,12 +34866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>26</v>
@@ -34941,12 +34941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>41</v>
@@ -35016,12 +35016,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -35083,12 +35083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
@@ -35158,12 +35158,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>307</v>
@@ -35235,12 +35235,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>496</v>
@@ -35312,7 +35312,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -35389,12 +35389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>124</v>
@@ -35466,12 +35466,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>26</v>
@@ -35533,12 +35533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -35608,7 +35608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -35683,12 +35683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -35758,12 +35758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>224</v>
@@ -35835,12 +35835,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>66</v>
@@ -35912,12 +35912,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>496</v>
@@ -35987,12 +35987,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36054,12 +36054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>26</v>
@@ -36129,12 +36129,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>100</v>
@@ -36204,12 +36204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -36279,12 +36279,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>26</v>
@@ -36346,12 +36346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -36413,12 +36413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>182</v>
@@ -36490,12 +36490,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>26</v>
@@ -36557,12 +36557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -36624,12 +36624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>66</v>
@@ -36691,12 +36691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>116</v>
@@ -36768,12 +36768,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>64</v>
@@ -36835,12 +36835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>41</v>
@@ -36902,12 +36902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>71</v>
@@ -36969,12 +36969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>182</v>
@@ -37044,12 +37044,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>32</v>
@@ -37119,12 +37119,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>71</v>
@@ -37186,12 +37186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -37263,12 +37263,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>201</v>
@@ -37330,12 +37330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -37397,12 +37397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
@@ -37472,12 +37472,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -37549,12 +37549,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>175</v>
@@ -37624,12 +37624,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>71</v>
@@ -37699,12 +37699,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>41</v>
@@ -37766,12 +37766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>159</v>
@@ -37833,12 +37833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>79</v>
@@ -37910,15 +37910,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C466" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>80</v>
@@ -37985,12 +37985,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -38060,12 +38060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>162</v>
@@ -38137,12 +38137,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38204,12 +38204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38281,12 +38281,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>32</v>
@@ -38358,12 +38358,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>66</v>
@@ -38425,12 +38425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -38500,12 +38500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38567,15 +38567,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>72</v>
@@ -38644,12 +38644,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>45</v>
@@ -38719,12 +38719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>175</v>
@@ -38786,18 +38786,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E478" s="3" t="s">
         <v>39</v>
@@ -38853,12 +38853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>162</v>
@@ -38930,12 +38930,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>465</v>
@@ -38997,12 +38997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>45</v>
@@ -39072,12 +39072,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>91</v>
@@ -39139,12 +39139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
@@ -39206,12 +39206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39273,12 +39273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>450</v>
@@ -39348,12 +39348,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>304</v>
@@ -39423,12 +39423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>168</v>
@@ -39500,18 +39500,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E488" s="3" t="s">
         <v>42</v>
@@ -39575,12 +39575,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>26</v>
@@ -39650,12 +39650,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39727,7 +39727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -39794,12 +39794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39871,12 +39871,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>107</v>
@@ -39946,12 +39946,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>26</v>
@@ -40013,12 +40013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40088,15 +40088,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>51</v>
@@ -40155,12 +40155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40230,12 +40230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>41</v>
@@ -40297,12 +40297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40374,12 +40374,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>168</v>
@@ -40441,7 +40441,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/england/20/england_shooting.xlsx
+++ b/data/league_data/england/20/england_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3F348-9B21-294C-85E9-C8DD5075D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29697305-E80A-B24F-B743-23F924D68746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1813,9 +1813,6 @@
     <t>Josh Martin</t>
   </si>
   <si>
-    <t>João Pedro</t>
-  </si>
-  <si>
     <t>Patrick Roberts</t>
   </si>
   <si>
@@ -1841,6 +1838,9 @@
   </si>
   <si>
     <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>João Pedro Junqueira</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34200,7 +34200,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>41</v>
@@ -39876,7 +39876,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>107</v>
@@ -39951,7 +39951,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>26</v>
@@ -40018,7 +40018,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40093,10 +40093,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>51</v>
@@ -40160,7 +40160,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40235,7 +40235,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>41</v>
@@ -40302,7 +40302,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40379,7 +40379,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>168</v>
